--- a/js/newShortTest.xlsx
+++ b/js/newShortTest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>holger.issle@hp.com</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>diana.zlatanova@hp.com</t>
+  </si>
+  <si>
+    <t>dora.popova@hp.com</t>
   </si>
 </sst>
 </file>
@@ -375,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,13 +404,19 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="mailto:holger.issle@hp.com"/>
     <hyperlink ref="A2" r:id="rId2" display="mailto:dragan.tonkov@hp.com"/>
     <hyperlink ref="A3" r:id="rId3" display="mailto:diana.zlatanova@hp.com"/>
+    <hyperlink ref="A4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/js/newShortTest.xlsx
+++ b/js/newShortTest.xlsx
@@ -9,15 +9,12 @@
   <sheets>
     <sheet name="MassDelete" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>holger.issle@hp.com</t>
-  </si>
   <si>
     <t>dragan.tonkov@hp.com</t>
   </si>
@@ -26,6 +23,9 @@
   </si>
   <si>
     <t>dora.popova@hp.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  holger.issle@hp.com  </t>
   </si>
 </sst>
 </file>
@@ -378,11 +378,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -391,30 +389,36 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="mailto:holger.issle@hp.com"/>
-    <hyperlink ref="A2" r:id="rId2" display="mailto:dragan.tonkov@hp.com"/>
-    <hyperlink ref="A3" r:id="rId3" display="mailto:diana.zlatanova@hp.com"/>
-    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:dragan.tonkov@hp.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:diana.zlatanova@hp.com"/>
+    <hyperlink ref="A6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
